--- a/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\демография СССР и РСФСР\1897-1913\Отчет о состоянии народного здравия\таблицы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC23974F-1F71-41F5-A6A0-1CC773039405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E45FCA-A0F2-418D-9F51-DDBC9F8280CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="2055" windowWidth="32505" windowHeight="21630" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
+    <workbookView xWindow="6495" yWindow="1950" windowWidth="16695" windowHeight="21630" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="192">
   <si>
     <t>губ</t>
   </si>
@@ -262,9 +262,6 @@
     <t>Ставропольская</t>
   </si>
   <si>
-    <t>Тверская обл</t>
-  </si>
-  <si>
     <t>Тифлисская</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
   </si>
   <si>
     <t xml:space="preserve">Астраханская </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виленская. </t>
   </si>
   <si>
     <t xml:space="preserve">Витебская </t>
@@ -990,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F405FFA-FA63-4BA1-ABFB-5002552DD83A}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,7 +1809,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="B75" s="2">
         <v>39.1</v>
@@ -1826,7 +1820,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2">
         <v>35</v>
@@ -1837,7 +1831,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2">
         <v>41.3</v>
@@ -1848,7 +1842,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2">
         <v>39.4</v>
@@ -1859,7 +1853,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2">
         <v>56.3</v>
@@ -1870,7 +1864,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2">
         <v>53.5</v>
@@ -1881,7 +1875,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2">
         <v>34.6</v>
@@ -1892,7 +1886,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2">
         <v>49.1</v>
@@ -1903,7 +1897,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2">
         <v>28.4</v>
@@ -1914,7 +1908,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2">
         <v>52.9</v>
@@ -1925,7 +1919,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2">
         <v>52</v>
@@ -1936,7 +1930,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2">
         <v>46.2</v>
@@ -1947,7 +1941,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2">
         <v>17.2</v>
@@ -1958,7 +1952,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2">
         <v>31</v>
@@ -1969,7 +1963,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2">
         <v>26.9</v>
@@ -1980,18 +1974,18 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2">
         <v>19.5</v>
@@ -2002,7 +1996,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2">
         <v>35.200000000000003</v>
@@ -2013,18 +2007,18 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2">
         <v>36.200000000000003</v>
@@ -2035,7 +2029,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2">
         <v>28.4</v>
@@ -2046,7 +2040,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2">
         <v>32.200000000000003</v>
@@ -2057,7 +2051,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2">
         <v>47.1</v>
@@ -2068,7 +2062,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2">
         <v>46</v>
@@ -2079,7 +2073,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99">
         <v>39.200000000000003</v>
@@ -2090,7 +2084,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>28.6</v>
@@ -2101,7 +2095,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101">
         <v>48.8</v>
@@ -2112,7 +2106,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>41.7</v>
@@ -2123,7 +2117,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>48.7</v>
@@ -2134,7 +2128,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>27.3</v>
@@ -2153,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFE31E7-F629-4E21-90DE-685571331471}">
   <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,37 +2166,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3">
         <v>32286</v>
@@ -2239,7 +2233,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="3">
         <v>165189</v>
@@ -2262,21 +2256,21 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J66" si="0">B3+F3</f>
+        <f t="shared" ref="J3:J65" si="0">B3+F3</f>
         <v>1062937</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K66" si="1">C3+G3</f>
+        <f t="shared" ref="K3:K65" si="1">C3+G3</f>
         <v>38229</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L66" si="2">D3+H3</f>
+        <f t="shared" ref="L3:L65" si="2">D3+H3</f>
         <v>28639</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>204506</v>
@@ -2313,7 +2307,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3">
         <v>232013</v>
@@ -2350,7 +2344,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" s="3">
         <v>278689</v>
@@ -2387,7 +2381,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="3">
         <v>259524</v>
@@ -2461,7 +2455,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="3">
         <v>138009</v>
@@ -2572,7 +2566,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3">
         <v>148398</v>
@@ -2646,7 +2640,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="3">
         <v>2654690</v>
@@ -2683,7 +2677,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" s="3">
         <v>756426</v>
@@ -2696,13 +2690,13 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3">
@@ -2865,7 +2859,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="3">
         <v>137624</v>
@@ -2976,7 +2970,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B23" s="3">
         <v>72674</v>
@@ -3013,7 +3007,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B24" s="3">
         <v>71860</v>
@@ -3050,7 +3044,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B25" s="3">
         <v>87383</v>
@@ -3087,7 +3081,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B26" s="3">
         <v>1982933</v>
@@ -3161,7 +3155,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B28" s="3">
         <v>365720</v>
@@ -3235,7 +3229,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B30" s="3">
         <v>607008</v>
@@ -3272,7 +3266,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" s="3">
         <v>319183</v>
@@ -3309,7 +3303,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" s="3">
         <v>142983</v>
@@ -3346,7 +3340,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" s="3">
         <v>65871</v>
@@ -3457,7 +3451,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B36" s="3">
         <v>354050</v>
@@ -3494,7 +3488,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B37" s="3">
         <v>214670</v>
@@ -3531,7 +3525,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B38" s="3">
         <v>92967</v>
@@ -3568,7 +3562,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B39" s="3">
         <v>88841</v>
@@ -3605,7 +3599,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B40" s="3">
         <v>208180</v>
@@ -3642,7 +3636,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3">
         <v>159267</v>
@@ -3679,7 +3673,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B42" s="3">
         <v>1167671</v>
@@ -3692,13 +3686,13 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3">
@@ -3713,7 +3707,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B43" s="3">
         <v>123482</v>
@@ -3750,7 +3744,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B44" s="3">
         <v>98377</v>
@@ -3861,7 +3855,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B47" s="3">
         <v>130019</v>
@@ -3898,7 +3892,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B48" s="3">
         <v>181811</v>
@@ -3935,7 +3929,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B49" s="3">
         <v>281236</v>
@@ -3972,7 +3966,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B50" s="3">
         <v>89331</v>
@@ -4009,7 +4003,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B51" s="3">
         <v>131015</v>
@@ -4083,10 +4077,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="3">
         <v>2605</v>
@@ -4119,7 +4113,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B54" s="3">
         <v>1313911</v>
@@ -4132,13 +4126,13 @@
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3">
@@ -4153,7 +4147,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B55" s="3">
         <v>377438</v>
@@ -4190,7 +4184,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B56" s="3">
         <v>117729</v>
@@ -4227,7 +4221,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B57" s="3">
         <v>155538</v>
@@ -4264,7 +4258,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B58" s="3">
         <v>241565</v>
@@ -4301,7 +4295,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B59" s="3">
         <v>63496</v>
@@ -4314,13 +4308,13 @@
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3">
@@ -4335,7 +4329,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B60" s="3">
         <v>220309</v>
@@ -4372,7 +4366,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B61" s="3">
         <v>160923</v>
@@ -4446,7 +4440,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B63" s="3">
         <v>129387</v>
@@ -4520,7 +4514,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B65" s="3">
         <v>207470</v>
@@ -4557,7 +4551,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B66" s="3">
         <v>474346</v>
@@ -4570,13 +4564,13 @@
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3">
@@ -4591,7 +4585,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B67" s="3">
         <v>97753</v>
@@ -4604,13 +4598,13 @@
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3">
@@ -4625,7 +4619,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B68" s="3">
         <v>220421</v>
@@ -4648,21 +4642,21 @@
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3">
-        <f t="shared" ref="J67:J106" si="3">B68+F68</f>
+        <f t="shared" ref="J68:J106" si="3">B68+F68</f>
         <v>2568673</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" ref="K67:K106" si="4">C68+G68</f>
+        <f t="shared" ref="K68:K106" si="4">C68+G68</f>
         <v>116175</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" ref="L67:L106" si="5">D68+H68</f>
+        <f t="shared" ref="L68:L106" si="5">D68+H68</f>
         <v>64152</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B69" s="3">
         <v>152829</v>
@@ -4699,7 +4693,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B70" s="3">
         <v>8951038</v>
@@ -4736,7 +4730,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B71" s="3">
         <v>218303</v>
@@ -4773,7 +4767,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B72" s="3">
         <v>14413972</v>
@@ -4810,7 +4804,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B73" s="3">
         <v>251792</v>
@@ -4847,7 +4841,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B74" s="3">
         <v>9165</v>
@@ -4884,7 +4878,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B75" s="3">
         <v>86560</v>
@@ -4921,7 +4915,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B76" s="3">
         <v>21926</v>
@@ -4958,7 +4952,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B77" s="3">
         <v>165805</v>
@@ -4995,7 +4989,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B78" s="3">
         <v>86652</v>
@@ -5032,7 +5026,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B79" s="3">
         <v>48006</v>
@@ -5069,7 +5063,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B80" s="3">
         <v>131761</v>
@@ -5106,7 +5100,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81" s="3">
         <v>214896</v>
@@ -5143,7 +5137,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B82" s="3">
         <v>47555</v>
@@ -5180,7 +5174,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83" s="3">
         <v>78403</v>
@@ -5217,7 +5211,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B84" s="3">
         <v>1142521</v>
@@ -5254,7 +5248,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85" s="3">
         <v>38987</v>
@@ -5291,7 +5285,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B86" s="3">
         <v>69483</v>
@@ -5328,7 +5322,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B87" s="3">
         <v>47336</v>
@@ -5365,7 +5359,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B88" s="3">
         <v>60407</v>
@@ -5402,7 +5396,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89" s="3">
         <v>88829</v>
@@ -5439,7 +5433,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B90" s="3">
         <v>89793</v>
@@ -5476,7 +5470,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B91" s="3">
         <v>139927</v>
@@ -5513,7 +5507,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="3">
         <v>9436</v>
@@ -5550,16 +5544,16 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3">
@@ -5584,7 +5578,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B94" s="3">
         <v>544198</v>
@@ -5621,7 +5615,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B95" s="3">
         <v>94976</v>
@@ -5658,7 +5652,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B96" s="3">
         <v>40075</v>
@@ -5695,26 +5689,26 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B97" s="3">
         <v>117241</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3">
         <v>751702</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3">
@@ -5722,15 +5716,15 @@
         <v>868943</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B98" s="3">
         <v>48104</v>
@@ -5767,7 +5761,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B99" s="3">
         <v>61642</v>
@@ -5804,41 +5798,41 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3">
         <v>1612315</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3">
         <v>1612315</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="3">
         <v>26806</v>
@@ -5875,7 +5869,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="3">
         <v>53919</v>
@@ -5912,7 +5906,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="3">
         <v>246590</v>
@@ -5949,7 +5943,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B104" s="3">
         <v>691353</v>
@@ -5986,7 +5980,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B105" s="3">
         <v>2878072</v>
@@ -6023,7 +6017,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B106" s="3">
         <v>16792044</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E45FCA-A0F2-418D-9F51-DDBC9F8280CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F9ED39-98D4-487A-8D91-54B293A3B0E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="1950" windowWidth="16695" windowHeight="21630" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
+    <workbookView xWindow="7365" yWindow="1950" windowWidth="22995" windowHeight="21630" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,13 +607,13 @@
 города</t>
   </si>
   <si>
-    <t>чр1902</t>
-  </si>
-  <si>
-    <t>чу1902</t>
-  </si>
-  <si>
     <t>Пермская</t>
+  </si>
+  <si>
+    <t>чр 1902</t>
+  </si>
+  <si>
+    <t>чу 1902</t>
   </si>
 </sst>
 </file>
@@ -984,9 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F405FFA-FA63-4BA1-ABFB-5002552DD83A}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2147,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFE31E7-F629-4E21-90DE-685571331471}">
   <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,10 +2186,10 @@
         <v>106</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3892,7 +3890,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B48" s="3">
         <v>181811</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F9ED39-98D4-487A-8D91-54B293A3B0E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8C50B5-0627-49EA-8114-DCFF4125A4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="1950" windowWidth="22995" windowHeight="21630" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
+    <workbookView xWindow="26400" yWindow="1365" windowWidth="9570" windowHeight="21630" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="191">
   <si>
     <t>губ</t>
   </si>
@@ -362,12 +362,6 @@
   </si>
   <si>
     <t xml:space="preserve">Витебская </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Волховская </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Грозненская </t>
   </si>
   <si>
     <t xml:space="preserve">Ковенская </t>
@@ -614,6 +608,9 @@
   </si>
   <si>
     <t>чу 1902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гродненская </t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1804,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B75" s="2">
         <v>39.1</v>
@@ -2146,7 +2143,7 @@
   <dimension ref="A1:L234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,32 +2161,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>106</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2342,7 +2339,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>278689</v>
@@ -2379,7 +2376,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="B7" s="3">
         <v>259524</v>
@@ -2453,7 +2450,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="3">
         <v>138009</v>
@@ -2564,7 +2561,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3">
         <v>148398</v>
@@ -2638,7 +2635,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3">
         <v>2654690</v>
@@ -2675,7 +2672,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3">
         <v>756426</v>
@@ -2857,7 +2854,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B20" s="3">
         <v>137624</v>
@@ -2968,7 +2965,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B23" s="3">
         <v>72674</v>
@@ -3005,7 +3002,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3">
         <v>71860</v>
@@ -3042,7 +3039,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B25" s="3">
         <v>87383</v>
@@ -3079,7 +3076,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B26" s="3">
         <v>1982933</v>
@@ -3153,7 +3150,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="3">
         <v>365720</v>
@@ -3227,7 +3224,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B30" s="3">
         <v>607008</v>
@@ -3264,7 +3261,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B31" s="3">
         <v>319183</v>
@@ -3301,7 +3298,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B32" s="3">
         <v>142983</v>
@@ -3338,7 +3335,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B33" s="3">
         <v>65871</v>
@@ -3449,7 +3446,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B36" s="3">
         <v>354050</v>
@@ -3486,7 +3483,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37" s="3">
         <v>214670</v>
@@ -3523,7 +3520,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B38" s="3">
         <v>92967</v>
@@ -3560,7 +3557,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39" s="3">
         <v>88841</v>
@@ -3597,7 +3594,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B40" s="3">
         <v>208180</v>
@@ -3634,7 +3631,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41" s="3">
         <v>159267</v>
@@ -3671,7 +3668,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="3">
         <v>1167671</v>
@@ -3705,7 +3702,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" s="3">
         <v>123482</v>
@@ -3742,7 +3739,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B44" s="3">
         <v>98377</v>
@@ -3853,7 +3850,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B47" s="3">
         <v>130019</v>
@@ -3890,7 +3887,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B48" s="3">
         <v>181811</v>
@@ -3927,7 +3924,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B49" s="3">
         <v>281236</v>
@@ -3964,7 +3961,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B50" s="3">
         <v>89331</v>
@@ -4001,7 +3998,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B51" s="3">
         <v>131015</v>
@@ -4075,7 +4072,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>97</v>
@@ -4111,7 +4108,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B54" s="3">
         <v>1313911</v>
@@ -4145,7 +4142,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B55" s="3">
         <v>377438</v>
@@ -4182,7 +4179,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B56" s="3">
         <v>117729</v>
@@ -4219,7 +4216,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B57" s="3">
         <v>155538</v>
@@ -4256,7 +4253,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B58" s="3">
         <v>241565</v>
@@ -4293,7 +4290,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B59" s="3">
         <v>63496</v>
@@ -4327,7 +4324,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" s="3">
         <v>220309</v>
@@ -4364,7 +4361,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B61" s="3">
         <v>160923</v>
@@ -4438,7 +4435,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B63" s="3">
         <v>129387</v>
@@ -4512,7 +4509,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B65" s="3">
         <v>207470</v>
@@ -4549,7 +4546,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B66" s="3">
         <v>474346</v>
@@ -4583,7 +4580,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B67" s="3">
         <v>97753</v>
@@ -4617,7 +4614,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B68" s="3">
         <v>220421</v>
@@ -4654,7 +4651,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B69" s="3">
         <v>152829</v>
@@ -4691,7 +4688,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B70" s="3">
         <v>8951038</v>
@@ -4728,7 +4725,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B71" s="3">
         <v>218303</v>
@@ -4765,7 +4762,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B72" s="3">
         <v>14413972</v>
@@ -4802,7 +4799,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B73" s="3">
         <v>251792</v>
@@ -4839,7 +4836,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B74" s="3">
         <v>9165</v>
@@ -4876,7 +4873,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B75" s="3">
         <v>86560</v>
@@ -4913,7 +4910,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B76" s="3">
         <v>21926</v>
@@ -4950,7 +4947,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B77" s="3">
         <v>165805</v>
@@ -4987,7 +4984,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B78" s="3">
         <v>86652</v>
@@ -5024,7 +5021,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B79" s="3">
         <v>48006</v>
@@ -5061,7 +5058,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B80" s="3">
         <v>131761</v>
@@ -5135,7 +5132,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B82" s="3">
         <v>47555</v>
@@ -5209,7 +5206,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B84" s="3">
         <v>1142521</v>
@@ -5283,7 +5280,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B86" s="3">
         <v>69483</v>
@@ -5320,7 +5317,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B87" s="3">
         <v>47336</v>
@@ -5357,7 +5354,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B88" s="3">
         <v>60407</v>
@@ -5431,7 +5428,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B90" s="3">
         <v>89793</v>
@@ -5468,7 +5465,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B91" s="3">
         <v>139927</v>
@@ -5542,7 +5539,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>97</v>
@@ -5576,7 +5573,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B94" s="3">
         <v>544198</v>
@@ -5613,7 +5610,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B95" s="3">
         <v>94976</v>
@@ -5650,7 +5647,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B96" s="3">
         <v>40075</v>
@@ -5687,7 +5684,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B97" s="3">
         <v>117241</v>
@@ -5722,7 +5719,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B98" s="3">
         <v>48104</v>
@@ -5759,7 +5756,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B99" s="3">
         <v>61642</v>
@@ -5796,7 +5793,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>97</v>
@@ -5941,7 +5938,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B104" s="3">
         <v>691353</v>
@@ -5978,7 +5975,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B105" s="3">
         <v>2878072</v>
@@ -6015,7 +6012,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B106" s="3">
         <v>16792044</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8C50B5-0627-49EA-8114-DCFF4125A4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D6BF69-8D49-45B2-A96C-AF92957CBE16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26400" yWindow="1365" windowWidth="9570" windowHeight="21630" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
+    <workbookView xWindow="16395" yWindow="2235" windowWidth="21000" windowHeight="21630" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFE31E7-F629-4E21-90DE-685571331471}">
   <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3">
-        <v>825196</v>
+        <v>825198</v>
       </c>
       <c r="G75" s="3">
         <v>22933</v>
@@ -4897,7 +4897,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3">
         <f t="shared" si="3"/>
-        <v>911756</v>
+        <v>911758</v>
       </c>
       <c r="K75" s="3">
         <f t="shared" si="4"/>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3">
-        <v>8170045</v>
+        <v>8770045</v>
       </c>
       <c r="G84" s="3">
         <v>374553</v>
@@ -5230,7 +5230,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3">
         <f t="shared" si="3"/>
-        <v>9312566</v>
+        <v>9912566</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" si="4"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D6BF69-8D49-45B2-A96C-AF92957CBE16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD146BC-5F95-4E45-AD9E-59DFEFA096A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16395" yWindow="2235" windowWidth="21000" windowHeight="21630" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
+    <workbookView xWindow="330" yWindow="330" windowWidth="18495" windowHeight="21630" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2143,7 +2143,7 @@
   <dimension ref="A1:L234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3">
-        <v>266283</v>
+        <v>256283</v>
       </c>
       <c r="G92" s="3">
         <v>11890</v>
@@ -5526,7 +5526,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3">
         <f t="shared" si="3"/>
-        <v>275719</v>
+        <v>265719</v>
       </c>
       <c r="K92" s="3">
         <f t="shared" si="4"/>
@@ -5904,7 +5904,7 @@
         <v>96</v>
       </c>
       <c r="B103" s="3">
-        <v>246590</v>
+        <v>248590</v>
       </c>
       <c r="C103" s="3">
         <v>8880</v>
@@ -5925,7 +5925,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3">
         <f t="shared" si="3"/>
-        <v>1770842</v>
+        <v>1772842</v>
       </c>
       <c r="K103" s="3">
         <f t="shared" si="4"/>
@@ -5978,7 +5978,7 @@
         <v>177</v>
       </c>
       <c r="B105" s="3">
-        <v>2878072</v>
+        <v>2378072</v>
       </c>
       <c r="C105" s="3">
         <v>85863</v>
@@ -5999,7 +5999,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3">
         <f t="shared" si="3"/>
-        <v>25410692</v>
+        <v>24910692</v>
       </c>
       <c r="K105" s="3">
         <f t="shared" si="4"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD146BC-5F95-4E45-AD9E-59DFEFA096A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685256D4-9CE6-4368-A199-0F6849905962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="330" windowWidth="18495" windowHeight="21630" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
+    <workbookView xWindow="1110" yWindow="1125" windowWidth="18495" windowHeight="22125" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="194">
   <si>
     <t>губ</t>
   </si>
@@ -611,6 +612,15 @@
   </si>
   <si>
     <t xml:space="preserve">Гродненская </t>
+  </si>
+  <si>
+    <t>Число рождений в земских губ. (города) напечатано: 337,177, но вычисляется: 330,181</t>
+  </si>
+  <si>
+    <t>Число рождений Всего в Европейской России (города) напечатано: 538,517, но вычисляется: 531,521</t>
+  </si>
+  <si>
+    <t>Число рождений Всего в Европейской России (уезды) напечатано: 4,915,807, но вычисляется: 4,906,752</t>
   </si>
 </sst>
 </file>
@@ -637,12 +647,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -657,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -665,6 +681,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2142,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFE31E7-F629-4E21-90DE-685571331471}">
   <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,7 +2436,7 @@
         <v>577314</v>
       </c>
       <c r="C8" s="3">
-        <v>20141</v>
+        <v>20441</v>
       </c>
       <c r="D8" s="3">
         <v>12013</v>
@@ -2441,7 +2458,7 @@
       </c>
       <c r="K8" s="3">
         <f t="shared" si="1"/>
-        <v>178467</v>
+        <v>178767</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="2"/>
@@ -3314,7 +3331,7 @@
         <v>1726563</v>
       </c>
       <c r="G32" s="3">
-        <v>81032</v>
+        <v>81082</v>
       </c>
       <c r="H32" s="3">
         <v>55744</v>
@@ -3326,7 +3343,7 @@
       </c>
       <c r="K32" s="3">
         <f t="shared" si="1"/>
-        <v>86416</v>
+        <v>86466</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="2"/>
@@ -3856,7 +3873,7 @@
         <v>130019</v>
       </c>
       <c r="C47" s="3">
-        <v>6638</v>
+        <v>6639</v>
       </c>
       <c r="D47" s="3">
         <v>5160</v>
@@ -3878,7 +3895,7 @@
       </c>
       <c r="K47" s="3">
         <f t="shared" si="1"/>
-        <v>92371</v>
+        <v>92372</v>
       </c>
       <c r="L47" s="3">
         <f t="shared" si="2"/>
@@ -3940,7 +3957,7 @@
         <v>2892340</v>
       </c>
       <c r="G49" s="3">
-        <v>8279</v>
+        <v>118279</v>
       </c>
       <c r="H49" s="3">
         <v>68115</v>
@@ -3952,7 +3969,7 @@
       </c>
       <c r="K49" s="3">
         <f t="shared" si="1"/>
-        <v>20222</v>
+        <v>130222</v>
       </c>
       <c r="L49" s="3">
         <f t="shared" si="2"/>
@@ -4330,7 +4347,7 @@
         <v>220309</v>
       </c>
       <c r="C60" s="3">
-        <v>9806</v>
+        <v>9805</v>
       </c>
       <c r="D60" s="3">
         <v>7548</v>
@@ -4352,7 +4369,7 @@
       </c>
       <c r="K60" s="3">
         <f t="shared" si="1"/>
-        <v>156870</v>
+        <v>156869</v>
       </c>
       <c r="L60" s="3">
         <f t="shared" si="2"/>
@@ -4693,8 +4710,8 @@
       <c r="B70" s="3">
         <v>8951038</v>
       </c>
-      <c r="C70" s="3">
-        <v>337177</v>
+      <c r="C70" s="5">
+        <v>330181</v>
       </c>
       <c r="D70" s="3">
         <v>244819</v>
@@ -4716,7 +4733,7 @@
       </c>
       <c r="K70" s="3">
         <f t="shared" si="4"/>
-        <v>3671464</v>
+        <v>3664468</v>
       </c>
       <c r="L70" s="3">
         <f t="shared" si="5"/>
@@ -4767,8 +4784,8 @@
       <c r="B72" s="3">
         <v>14413972</v>
       </c>
-      <c r="C72" s="3">
-        <v>538517</v>
+      <c r="C72" s="5">
+        <v>531521</v>
       </c>
       <c r="D72" s="3">
         <v>370026</v>
@@ -4777,8 +4794,8 @@
       <c r="F72" s="3">
         <v>101754930</v>
       </c>
-      <c r="G72" s="3">
-        <v>4915807</v>
+      <c r="G72" s="5">
+        <v>4906752</v>
       </c>
       <c r="H72" s="3">
         <v>3090234</v>
@@ -4790,7 +4807,7 @@
       </c>
       <c r="K72" s="3">
         <f t="shared" si="4"/>
-        <v>5454324</v>
+        <v>5438273</v>
       </c>
       <c r="L72" s="3">
         <f t="shared" si="5"/>
@@ -6795,4 +6812,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93360861-95F9-4E60-AAA6-1A2501EF2A8B}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1902.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685256D4-9CE6-4368-A199-0F6849905962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA09520-3A62-4A36-B98F-91C584B1A4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1125" windowWidth="18495" windowHeight="22125" activeTab="1" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
+    <workbookView xWindow="16785" yWindow="1350" windowWidth="18495" windowHeight="22125" activeTab="2" xr2:uid="{03F30607-691D-4B51-B95D-D1B19B24CEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="196">
   <si>
     <t>губ</t>
   </si>
@@ -621,6 +621,12 @@
   </si>
   <si>
     <t>Число рождений Всего в Европейской России (уезды) напечатано: 4,915,807, но вычисляется: 4,906,752</t>
+  </si>
+  <si>
+    <t>Число смертей в земских губ. (уезды) напечатано: 2,179,816, но вычисляется: 2,180,816</t>
+  </si>
+  <si>
+    <t>Число смертей в Сибири (уезды) расходится на 20 тыс. с пообластными данными</t>
   </si>
 </sst>
 </file>
@@ -673,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -682,6 +688,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2159,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFE31E7-F629-4E21-90DE-685571331471}">
   <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,7 +2604,7 @@
         <v>100062</v>
       </c>
       <c r="H12" s="3">
-        <v>5413</v>
+        <v>65413</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3">
@@ -2610,7 +2617,7 @@
       </c>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
-        <v>12862</v>
+        <v>72862</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2769,7 +2776,7 @@
         <v>2332</v>
       </c>
       <c r="D17" s="3">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
@@ -2792,7 +2799,7 @@
       </c>
       <c r="L17" s="3">
         <f t="shared" si="2"/>
-        <v>21543</v>
+        <v>21548</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,7 +3109,7 @@
         <v>71893</v>
       </c>
       <c r="D26" s="3">
-        <v>41635</v>
+        <v>41688</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3">
@@ -3125,7 +3132,7 @@
       </c>
       <c r="L26" s="3">
         <f t="shared" si="2"/>
-        <v>252084</v>
+        <v>252137</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3250,7 +3257,7 @@
         <v>20890</v>
       </c>
       <c r="D30" s="3">
-        <v>13193</v>
+        <v>13198</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3">
@@ -3260,7 +3267,7 @@
         <v>50857</v>
       </c>
       <c r="H30" s="3">
-        <v>33183</v>
+        <v>33483</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3">
@@ -3273,7 +3280,7 @@
       </c>
       <c r="L30" s="3">
         <f t="shared" si="2"/>
-        <v>46376</v>
+        <v>46681</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3297,7 +3304,7 @@
         <v>87145</v>
       </c>
       <c r="H31" s="3">
-        <v>48123</v>
+        <v>48423</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3">
@@ -3310,7 +3317,7 @@
       </c>
       <c r="L31" s="3">
         <f t="shared" si="2"/>
-        <v>55123</v>
+        <v>55423</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3775,7 +3782,7 @@
         <v>64175</v>
       </c>
       <c r="H44" s="3">
-        <v>38361</v>
+        <v>38861</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3">
@@ -3788,7 +3795,7 @@
       </c>
       <c r="L44" s="3">
         <f t="shared" si="2"/>
-        <v>40819</v>
+        <v>41319</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -4424,7 +4431,7 @@
         <v>7731</v>
       </c>
       <c r="D62" s="3">
-        <v>6169</v>
+        <v>5169</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3">
@@ -4447,7 +4454,7 @@
       </c>
       <c r="L62" s="3">
         <f t="shared" si="2"/>
-        <v>58007</v>
+        <v>57007</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4723,7 +4730,7 @@
       <c r="G70" s="3">
         <v>3334287</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="6">
         <v>2179816</v>
       </c>
       <c r="I70" s="3"/>
@@ -6816,10 +6823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93360861-95F9-4E60-AAA6-1A2501EF2A8B}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6839,6 +6846,16 @@
         <v>193</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
